--- a/instance/zyjk/EHR/rule/rule.xlsx
+++ b/instance/zyjk/EHR/rule/rule.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/EHR/rule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3230A832-4541-9946-AF65-4EF6436D6C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F021C00D-D6FE-8D43-B5B5-5DD5D14F4ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="rule" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000"/>
   <extLst>
